--- a/flows/USAI_fund_flow_data.xlsx
+++ b/flows/USAI_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1561"/>
+  <dimension ref="A1:B1577"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16045,6 +16045,166 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1562">
+      <c r="A1562" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B1562" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1563">
+      <c r="A1563" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B1563" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1564">
+      <c r="A1564" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B1564" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1565">
+      <c r="A1565" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B1565" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1566">
+      <c r="A1566" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B1566" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1567">
+      <c r="A1567" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B1567" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1568">
+      <c r="A1568" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B1568" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1569">
+      <c r="A1569" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B1569" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1570">
+      <c r="A1570" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B1570" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1571">
+      <c r="A1571" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B1571" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1572">
+      <c r="A1572" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B1572" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1573">
+      <c r="A1573" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B1573" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1574">
+      <c r="A1574" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B1574" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1575">
+      <c r="A1575" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B1575" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1576">
+      <c r="A1576" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B1576" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1577">
+      <c r="A1577" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B1577" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
